--- a/indicadores/tablas/620103.xlsx
+++ b/indicadores/tablas/620103.xlsx
@@ -1,6 +1,6 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <workbookPr date1904="false"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="13125" windowHeight="6105" firstSheet="0" activeTab="0"/>
@@ -13,7 +13,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="37" uniqueCount="37">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="38" uniqueCount="38">
   <si>
     <t xml:space="preserve">Fecha</t>
   </si>
@@ -21,6 +21,9 @@
     <t xml:space="preserve">Valor</t>
   </si>
   <si>
+    <t xml:space="preserve">2021</t>
+  </si>
+  <si>
     <t xml:space="preserve">2020</t>
   </si>
   <si>
@@ -78,7 +81,7 @@
     <t xml:space="preserve">nomindicador</t>
   </si>
   <si>
-    <t xml:space="preserve">Gasto público en medio ambiente, vivienda, agua y saneamiento como porcentaje del gasto público total</t>
+    <t xml:space="preserve">Gasto público en medio ambiente, vivienda, agua y saneamiento como porcentaje del gasto público social</t>
   </si>
   <si>
     <t xml:space="preserve">derecho</t>
@@ -90,7 +93,7 @@
     <t xml:space="preserve">conindicador</t>
   </si>
   <si>
-    <t xml:space="preserve">Prioridad fiscal del gasto público en medio ambiente, vivienda, agua y saneamiento</t>
+    <t xml:space="preserve">Prioridad del gasto público en medio ambiente, vivienda, agua y saneamiento en el gasto público social</t>
   </si>
   <si>
     <t xml:space="preserve">tipoind</t>
@@ -102,13 +105,13 @@
     <t xml:space="preserve">definicion</t>
   </si>
   <si>
-    <t xml:space="preserve">El indicador mide el peso del gasto público en vivienda, medio ambiente, agua y saneamiento en el gasto público total.</t>
+    <t xml:space="preserve">El indicador mide el peso del gasto público en vivienda, medio ambiente, agua y saneamiento en el total de gasto público social (GPS). El GPS se compone del gasto en salud; salud; seguridad y asistencia social; salud, medio ambiente, agua y saneamiento; y cultura y deporte					.</t>
   </si>
   <si>
     <t xml:space="preserve">calculo</t>
   </si>
   <si>
-    <t xml:space="preserve">Para cada año calcular: (Gasto público en vivienda, medio ambiente, agua y saneamiento / Gasto público total)*100</t>
+    <t xml:space="preserve">Para cada año calcular: (Gasto público en vivienda, medio ambiente, agua y saneamiento / Gasto público social)*100</t>
   </si>
   <si>
     <t xml:space="preserve">observaciones</t>
@@ -120,7 +123,7 @@
     <t xml:space="preserve">cita</t>
   </si>
   <si>
-    <t xml:space="preserve">UMAD con base en DINEM - MIDES / Datos 2019 y 2020 MIDES-MEF-OPP</t>
+    <t xml:space="preserve">UMAD con base en DINEM - MIDES hasta 2018, a partir de 2019 MIDES-MEF-OPP</t>
   </si>
   <si>
     <t xml:space="preserve">Mirador DESCA - UMAD/FCS – INDDHH</t>
@@ -129,7 +132,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="0"/>
   <fonts count="1">
     <font>
@@ -448,12 +451,12 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3">
   <dimension ref="A1"/>
   <sheetViews>
-    <sheetView workbookViewId="0" zoomScale="100" showGridLines="1" tabSelected="1"/>
+    <sheetView workbookViewId="0" zoomScale="100" showGridLines="1" tabSelected="true"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15.0"/>
+  <sheetFormatPr defaultRowHeight="15.0" baseColWidth="10"/>
   <sheetData>
     <row r="1">
       <c r="A1" t="s">
@@ -468,7 +471,7 @@
         <v>2</v>
       </c>
       <c r="B2" t="n">
-        <v>3.7</v>
+        <v>4.7</v>
       </c>
     </row>
     <row r="3">
@@ -476,7 +479,7 @@
         <v>3</v>
       </c>
       <c r="B3" t="n">
-        <v>4.1</v>
+        <v>4.8</v>
       </c>
     </row>
     <row r="4">
@@ -484,7 +487,7 @@
         <v>4</v>
       </c>
       <c r="B4" t="n">
-        <v>4.4</v>
+        <v>5.5</v>
       </c>
     </row>
     <row r="5">
@@ -492,7 +495,7 @@
         <v>5</v>
       </c>
       <c r="B5" t="n">
-        <v>4.4</v>
+        <v>5.8</v>
       </c>
     </row>
     <row r="6">
@@ -500,7 +503,7 @@
         <v>6</v>
       </c>
       <c r="B6" t="n">
-        <v>4.5</v>
+        <v>5.9</v>
       </c>
     </row>
     <row r="7">
@@ -508,7 +511,7 @@
         <v>7</v>
       </c>
       <c r="B7" t="n">
-        <v>4.3</v>
+        <v>6</v>
       </c>
     </row>
     <row r="8">
@@ -516,7 +519,7 @@
         <v>8</v>
       </c>
       <c r="B8" t="n">
-        <v>4.4</v>
+        <v>5.7</v>
       </c>
     </row>
     <row r="9">
@@ -524,7 +527,7 @@
         <v>9</v>
       </c>
       <c r="B9" t="n">
-        <v>4.6</v>
+        <v>5.9</v>
       </c>
     </row>
     <row r="10">
@@ -532,7 +535,7 @@
         <v>10</v>
       </c>
       <c r="B10" t="n">
-        <v>4.5</v>
+        <v>6.1</v>
       </c>
     </row>
     <row r="11">
@@ -540,7 +543,7 @@
         <v>11</v>
       </c>
       <c r="B11" t="n">
-        <v>4.7</v>
+        <v>6</v>
       </c>
     </row>
     <row r="12">
@@ -548,7 +551,7 @@
         <v>12</v>
       </c>
       <c r="B12" t="n">
-        <v>4.8</v>
+        <v>6.3</v>
       </c>
     </row>
     <row r="13">
@@ -556,7 +559,7 @@
         <v>13</v>
       </c>
       <c r="B13" t="n">
-        <v>4.9</v>
+        <v>6.5</v>
       </c>
     </row>
     <row r="14">
@@ -564,7 +567,7 @@
         <v>14</v>
       </c>
       <c r="B14" t="n">
-        <v>4.4</v>
+        <v>6.8</v>
       </c>
     </row>
     <row r="15">
@@ -572,7 +575,7 @@
         <v>15</v>
       </c>
       <c r="B15" t="n">
-        <v>4.8</v>
+        <v>6.3</v>
       </c>
     </row>
     <row r="16">
@@ -580,7 +583,7 @@
         <v>16</v>
       </c>
       <c r="B16" t="n">
-        <v>4.8</v>
+        <v>7</v>
       </c>
     </row>
     <row r="17">
@@ -588,7 +591,15 @@
         <v>17</v>
       </c>
       <c r="B17" t="n">
-        <v>4.3</v>
+        <v>7</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" t="s">
+        <v>18</v>
+      </c>
+      <c r="B18" t="n">
+        <v>6.5</v>
       </c>
     </row>
   </sheetData>
@@ -598,91 +609,91 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3">
   <dimension ref="A1"/>
   <sheetViews>
-    <sheetView workbookViewId="0" zoomScale="100" showGridLines="1" tabSelected="0"/>
+    <sheetView workbookViewId="0" zoomScale="100" showGridLines="1" tabSelected="false"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15.0"/>
+  <sheetFormatPr defaultRowHeight="15.0" baseColWidth="10"/>
   <sheetData>
     <row r="1">
       <c r="A1" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="B1" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="B2" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="B3" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="B4" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="B5" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="B6" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="B7" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="B8" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="B9" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="B10" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
     </row>
   </sheetData>

--- a/indicadores/tablas/620103.xlsx
+++ b/indicadores/tablas/620103.xlsx
@@ -13,7 +13,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="38" uniqueCount="38">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="60" uniqueCount="60">
   <si>
     <t xml:space="preserve">Fecha</t>
   </si>
@@ -21,6 +21,12 @@
     <t xml:space="preserve">Valor</t>
   </si>
   <si>
+    <t xml:space="preserve">2023</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2022</t>
+  </si>
+  <si>
     <t xml:space="preserve">2021</t>
   </si>
   <si>
@@ -72,7 +78,61 @@
     <t xml:space="preserve">2005</t>
   </si>
   <si>
-    <t xml:space="preserve"/>
+    <t xml:space="preserve">2004</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2003</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2002</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2001</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2000</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1999</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1998</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1997</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1996</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1995</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1994</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1993</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1992</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1991</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1990</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1988</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1987</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1986</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1985</t>
   </si>
   <si>
     <t xml:space="preserve"> </t>
@@ -118,6 +178,12 @@
   </si>
   <si>
     <t xml:space="preserve">Sin observaciones</t>
+  </si>
+  <si>
+    <t xml:space="preserve">actualizacion</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Julio 2025</t>
   </si>
   <si>
     <t xml:space="preserve">cita</t>
@@ -471,7 +537,7 @@
         <v>2</v>
       </c>
       <c r="B2" t="n">
-        <v>4.7</v>
+        <v>5.2</v>
       </c>
     </row>
     <row r="3">
@@ -479,7 +545,7 @@
         <v>3</v>
       </c>
       <c r="B3" t="n">
-        <v>4.8</v>
+        <v>5.4</v>
       </c>
     </row>
     <row r="4">
@@ -487,7 +553,7 @@
         <v>4</v>
       </c>
       <c r="B4" t="n">
-        <v>5.5</v>
+        <v>4.7</v>
       </c>
     </row>
     <row r="5">
@@ -495,7 +561,7 @@
         <v>5</v>
       </c>
       <c r="B5" t="n">
-        <v>5.8</v>
+        <v>4.8</v>
       </c>
     </row>
     <row r="6">
@@ -503,7 +569,7 @@
         <v>6</v>
       </c>
       <c r="B6" t="n">
-        <v>5.9</v>
+        <v>5.5</v>
       </c>
     </row>
     <row r="7">
@@ -511,7 +577,7 @@
         <v>7</v>
       </c>
       <c r="B7" t="n">
-        <v>6</v>
+        <v>5.8</v>
       </c>
     </row>
     <row r="8">
@@ -519,7 +585,7 @@
         <v>8</v>
       </c>
       <c r="B8" t="n">
-        <v>5.7</v>
+        <v>5.9</v>
       </c>
     </row>
     <row r="9">
@@ -527,7 +593,7 @@
         <v>9</v>
       </c>
       <c r="B9" t="n">
-        <v>5.9</v>
+        <v>6</v>
       </c>
     </row>
     <row r="10">
@@ -535,7 +601,7 @@
         <v>10</v>
       </c>
       <c r="B10" t="n">
-        <v>6.1</v>
+        <v>5.7</v>
       </c>
     </row>
     <row r="11">
@@ -543,7 +609,7 @@
         <v>11</v>
       </c>
       <c r="B11" t="n">
-        <v>6</v>
+        <v>5.9</v>
       </c>
     </row>
     <row r="12">
@@ -551,7 +617,7 @@
         <v>12</v>
       </c>
       <c r="B12" t="n">
-        <v>6.3</v>
+        <v>6.1</v>
       </c>
     </row>
     <row r="13">
@@ -559,7 +625,7 @@
         <v>13</v>
       </c>
       <c r="B13" t="n">
-        <v>6.5</v>
+        <v>6</v>
       </c>
     </row>
     <row r="14">
@@ -567,7 +633,7 @@
         <v>14</v>
       </c>
       <c r="B14" t="n">
-        <v>6.8</v>
+        <v>6.3</v>
       </c>
     </row>
     <row r="15">
@@ -575,7 +641,7 @@
         <v>15</v>
       </c>
       <c r="B15" t="n">
-        <v>6.3</v>
+        <v>6.5</v>
       </c>
     </row>
     <row r="16">
@@ -583,7 +649,7 @@
         <v>16</v>
       </c>
       <c r="B16" t="n">
-        <v>7</v>
+        <v>6.8</v>
       </c>
     </row>
     <row r="17">
@@ -591,7 +657,7 @@
         <v>17</v>
       </c>
       <c r="B17" t="n">
-        <v>7</v>
+        <v>6.3</v>
       </c>
     </row>
     <row r="18">
@@ -599,7 +665,175 @@
         <v>18</v>
       </c>
       <c r="B18" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" t="s">
+        <v>19</v>
+      </c>
+      <c r="B19" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" t="s">
+        <v>20</v>
+      </c>
+      <c r="B20" t="n">
         <v>6.5</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" t="s">
+        <v>21</v>
+      </c>
+      <c r="B21" t="n">
+        <v>7.1</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" t="s">
+        <v>22</v>
+      </c>
+      <c r="B22" t="n">
+        <v>6.8</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" t="s">
+        <v>23</v>
+      </c>
+      <c r="B23" t="n">
+        <v>6.4</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" t="s">
+        <v>24</v>
+      </c>
+      <c r="B24" t="n">
+        <v>7.1</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" t="s">
+        <v>25</v>
+      </c>
+      <c r="B25" t="n">
+        <v>5.8</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" t="s">
+        <v>26</v>
+      </c>
+      <c r="B26" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" t="s">
+        <v>27</v>
+      </c>
+      <c r="B27" t="n">
+        <v>5.7</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" t="s">
+        <v>28</v>
+      </c>
+      <c r="B28" t="n">
+        <v>6.2</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" t="s">
+        <v>29</v>
+      </c>
+      <c r="B29" t="n">
+        <v>6.3</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" t="s">
+        <v>30</v>
+      </c>
+      <c r="B30" t="n">
+        <v>3.8</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" t="s">
+        <v>31</v>
+      </c>
+      <c r="B31" t="n">
+        <v>4.1</v>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" t="s">
+        <v>32</v>
+      </c>
+      <c r="B32" t="n">
+        <v>3.8</v>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" t="s">
+        <v>33</v>
+      </c>
+      <c r="B33" t="n">
+        <v>3.6</v>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" t="s">
+        <v>34</v>
+      </c>
+      <c r="B34" t="n">
+        <v>2.3</v>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" t="s">
+        <v>35</v>
+      </c>
+      <c r="B35" t="n">
+        <v>2.9</v>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" t="s">
+        <v>36</v>
+      </c>
+      <c r="B36" t="n">
+        <v>3.7</v>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" t="s">
+        <v>37</v>
+      </c>
+      <c r="B37" t="n">
+        <v>4.8</v>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" t="s">
+        <v>38</v>
+      </c>
+      <c r="B38" t="n">
+        <v>4.7</v>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" t="s">
+        <v>39</v>
+      </c>
+      <c r="B39" t="n">
+        <v>4.9</v>
       </c>
     </row>
   </sheetData>
@@ -618,82 +852,90 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s">
-        <v>19</v>
+        <v>40</v>
       </c>
       <c r="B1" t="s">
-        <v>20</v>
+        <v>40</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="s">
-        <v>21</v>
+        <v>41</v>
       </c>
       <c r="B2" t="s">
-        <v>22</v>
+        <v>42</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="s">
-        <v>23</v>
+        <v>43</v>
       </c>
       <c r="B3" t="s">
-        <v>24</v>
+        <v>44</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="s">
-        <v>25</v>
+        <v>45</v>
       </c>
       <c r="B4" t="s">
-        <v>26</v>
+        <v>46</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="s">
-        <v>27</v>
+        <v>47</v>
       </c>
       <c r="B5" t="s">
-        <v>28</v>
+        <v>48</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="s">
-        <v>29</v>
+        <v>49</v>
       </c>
       <c r="B6" t="s">
-        <v>30</v>
+        <v>50</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="s">
-        <v>31</v>
+        <v>51</v>
       </c>
       <c r="B7" t="s">
-        <v>32</v>
+        <v>52</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="s">
-        <v>33</v>
+        <v>53</v>
       </c>
       <c r="B8" t="s">
-        <v>34</v>
+        <v>54</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="s">
-        <v>35</v>
+        <v>55</v>
       </c>
       <c r="B9" t="s">
-        <v>36</v>
+        <v>56</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="s">
-        <v>37</v>
+        <v>57</v>
       </c>
       <c r="B10" t="s">
-        <v>20</v>
+        <v>58</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="s">
+        <v>59</v>
+      </c>
+      <c r="B11" t="s">
+        <v>40</v>
       </c>
     </row>
   </sheetData>
